--- a/src/assets/DataCSV/Etudiants.xlsx
+++ b/src/assets/DataCSV/Etudiants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\ProjetBlendedLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF20DEDC-BCA5-403C-9B7E-F6E46EC4E4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92CA303-E3C7-48BB-A53B-2C166ED52859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,22 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
-  <si>
-    <t>06 49 94 91 59 23</t>
-  </si>
-  <si>
-    <t>7 49 94 91 59 23</t>
-  </si>
-  <si>
-    <t>8 49 94 91 59 23</t>
-  </si>
-  <si>
-    <t>9 49 94 91 59 23</t>
-  </si>
-  <si>
-    <t>10 49 94 91 59 23</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="197">
   <si>
     <t>login</t>
   </si>
@@ -52,63 +37,9 @@
     <t>Mme</t>
   </si>
   <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>e@e.com</t>
-  </si>
-  <si>
-    <t>h@h.com</t>
-  </si>
-  <si>
-    <t>o@o.com</t>
-  </si>
-  <si>
-    <t>r@r.com</t>
-  </si>
-  <si>
-    <t>g@g.com</t>
-  </si>
-  <si>
-    <t>Elhadi</t>
-  </si>
-  <si>
-    <t>oussama</t>
-  </si>
-  <si>
-    <t>makaoui</t>
-  </si>
-  <si>
-    <t>Ghita</t>
-  </si>
-  <si>
-    <t>laayoun</t>
-  </si>
-  <si>
-    <t>Hanaa</t>
-  </si>
-  <si>
-    <t>hanime</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
-    <t>k34231</t>
-  </si>
-  <si>
-    <t>k34312</t>
-  </si>
-  <si>
-    <t>k344434</t>
-  </si>
-  <si>
-    <t>k34234</t>
-  </si>
-  <si>
-    <t>k2433323</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -130,17 +61,569 @@
     <t>classeId</t>
   </si>
   <si>
-    <t>elhadi</t>
-  </si>
-  <si>
-    <t>reda</t>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>555-111-2222</t>
+  </si>
+  <si>
+    <t>garcia@email.com</t>
+  </si>
+  <si>
+    <t>garcia22</t>
+  </si>
+  <si>
+    <t>Pass1234</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>K56789</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>555-333-4444</t>
+  </si>
+  <si>
+    <t>martinez@email.com</t>
+  </si>
+  <si>
+    <t>martin88</t>
+  </si>
+  <si>
+    <t>SecretPwd</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>K67890</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>555-555-6666</t>
+  </si>
+  <si>
+    <t>robinson@email.com</t>
+  </si>
+  <si>
+    <t>robinson7</t>
+  </si>
+  <si>
+    <t>MySecret</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>K78901</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>555-777-8888</t>
+  </si>
+  <si>
+    <t>clark@email.com</t>
+  </si>
+  <si>
+    <t>clarky55</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>K89012</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>555-999-0000</t>
+  </si>
+  <si>
+    <t>lee@email.com</t>
+  </si>
+  <si>
+    <t>leelee99</t>
+  </si>
+  <si>
+    <t>LeePass</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>K90123</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>555-121-2121</t>
+  </si>
+  <si>
+    <t>walker@email.com</t>
+  </si>
+  <si>
+    <t>walkman</t>
+  </si>
+  <si>
+    <t>Walker123</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>K01234</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>555-343-4343</t>
+  </si>
+  <si>
+    <t>hall@email.com</t>
+  </si>
+  <si>
+    <t>hally</t>
+  </si>
+  <si>
+    <t>HallPass</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>K12345</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>555-565-6565</t>
+  </si>
+  <si>
+    <t>young@email.com</t>
+  </si>
+  <si>
+    <t>youngster</t>
+  </si>
+  <si>
+    <t>Y0ungPwd</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>K23456</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>555-787-8787</t>
+  </si>
+  <si>
+    <t>allen@email.com</t>
+  </si>
+  <si>
+    <t>alleny22</t>
+  </si>
+  <si>
+    <t>A!lenPass</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>K34567</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>555-909-0909</t>
+  </si>
+  <si>
+    <t>king@email.com</t>
+  </si>
+  <si>
+    <t>king55</t>
+  </si>
+  <si>
+    <t>KingPwd</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>K45678</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>555-232-3232</t>
+  </si>
+  <si>
+    <t>scott@email.com</t>
+  </si>
+  <si>
+    <t>scotty33</t>
+  </si>
+  <si>
+    <t>ScottPass</t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>555-454-5454</t>
+  </si>
+  <si>
+    <t>green@email.com</t>
+  </si>
+  <si>
+    <t>greener</t>
+  </si>
+  <si>
+    <t>Green2023</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>555-676-7676</t>
+  </si>
+  <si>
+    <t>baker@email.com</t>
+  </si>
+  <si>
+    <t>bakecake</t>
+  </si>
+  <si>
+    <t>B@kerPwd</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>555-898-9898</t>
+  </si>
+  <si>
+    <t>adams@email.com</t>
+  </si>
+  <si>
+    <t>adams99</t>
+  </si>
+  <si>
+    <t>A*damsPass</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>555-121-4545</t>
+  </si>
+  <si>
+    <t>cruz@email.com</t>
+  </si>
+  <si>
+    <t>cruzer</t>
+  </si>
+  <si>
+    <t>CruzPass</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>555-343-6767</t>
+  </si>
+  <si>
+    <t>phillips@email.com</t>
+  </si>
+  <si>
+    <t>philly888</t>
+  </si>
+  <si>
+    <t>P@ssPh!ll1</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>555-565-8989</t>
+  </si>
+  <si>
+    <t>reed@email.com</t>
+  </si>
+  <si>
+    <t>reedr</t>
+  </si>
+  <si>
+    <t>ReedyPass</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>555-787-1212</t>
+  </si>
+  <si>
+    <t>turner@email.com</t>
+  </si>
+  <si>
+    <t>turner11</t>
+  </si>
+  <si>
+    <t>TurnerPwd</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>555-909-3434</t>
+  </si>
+  <si>
+    <t>morgan@email.com</t>
+  </si>
+  <si>
+    <t>morgan22</t>
+  </si>
+  <si>
+    <t>M0rganPass</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>555-232-5656</t>
+  </si>
+  <si>
+    <t>cooper@email.com</t>
+  </si>
+  <si>
+    <t>coop55</t>
+  </si>
+  <si>
+    <t>Co0perPwd</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>555-454-4545</t>
+  </si>
+  <si>
+    <t>ward@email.com</t>
+  </si>
+  <si>
+    <t>wardy88</t>
+  </si>
+  <si>
+    <t>WardPass</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>555-676-6767</t>
+  </si>
+  <si>
+    <t>torres@email.com</t>
+  </si>
+  <si>
+    <t>torres99</t>
+  </si>
+  <si>
+    <t>T0rr3sPwd</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>555-898-8989</t>
+  </si>
+  <si>
+    <t>peterson@email.com</t>
+  </si>
+  <si>
+    <t>petey22</t>
+  </si>
+  <si>
+    <t>P3terson</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>gray@email.com</t>
+  </si>
+  <si>
+    <t>graygrey</t>
+  </si>
+  <si>
+    <t>Gray123</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>555-343-3434</t>
+  </si>
+  <si>
+    <t>ramirez@email.com</t>
+  </si>
+  <si>
+    <t>ramirez77</t>
+  </si>
+  <si>
+    <t>Ram1rezPwd</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>555-565-5656</t>
+  </si>
+  <si>
+    <t>james@email.com</t>
+  </si>
+  <si>
+    <t>jamesy11</t>
+  </si>
+  <si>
+    <t>J@m3sPass</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>555-787-7878</t>
+  </si>
+  <si>
+    <t>watson@email.com</t>
+  </si>
+  <si>
+    <t>watson22</t>
+  </si>
+  <si>
+    <t>W@tsonPwd</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>555-909-9090</t>
+  </si>
+  <si>
+    <t>brooks@email.com</t>
+  </si>
+  <si>
+    <t>brooks33</t>
+  </si>
+  <si>
+    <t>Br00ksPwd</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>555-232-2323</t>
+  </si>
+  <si>
+    <t>kelly@email.com</t>
+  </si>
+  <si>
+    <t>kellykelly</t>
+  </si>
+  <si>
+    <t>K3llyPass</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>sanders@email.com</t>
+  </si>
+  <si>
+    <t>sanders88</t>
+  </si>
+  <si>
+    <t>S@ndersPwd</t>
+  </si>
+  <si>
+    <t>Henry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +645,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -177,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,16 +698,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D4:L9"/>
+  <dimension ref="D4:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:L7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,195 +1080,940 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2" t="s">
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D5" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D7" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D8" s="1" t="s">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="6">
+        <v>3</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="6">
+        <v>2</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="6">
+        <v>3</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>26</v>
+      <c r="L26" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="6">
+        <v>2</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="6">
+        <v>3</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K31" s="6">
+        <v>2</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D32" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="6">
+        <v>3</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D33" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D34" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" s="6">
+        <v>2</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId1" display="mailto:garcia@email.com" xr:uid="{331F647F-93D5-4E4C-8995-A1ECC7A3D8D8}"/>
+    <hyperlink ref="F6" r:id="rId2" display="mailto:martinez@email.com" xr:uid="{94F66724-AB8A-4158-98B9-A0B6E9F6EA06}"/>
+    <hyperlink ref="F7" r:id="rId3" display="mailto:robinson@email.com" xr:uid="{9291A7B3-942A-478E-8AED-7DB903888B10}"/>
+    <hyperlink ref="F8" r:id="rId4" display="mailto:clark@email.com" xr:uid="{32EA2080-6233-40F3-AB68-7A47A0F3AB34}"/>
+    <hyperlink ref="F9" r:id="rId5" display="mailto:lee@email.com" xr:uid="{1AC8B2B7-FAA1-4654-B6D6-90ACC3B629F7}"/>
+    <hyperlink ref="F10" r:id="rId6" display="mailto:walker@email.com" xr:uid="{9B00FBF6-A79E-47A9-A599-3F213DEDF332}"/>
+    <hyperlink ref="F11" r:id="rId7" display="mailto:hall@email.com" xr:uid="{2188E124-C3DC-4440-B525-EED5AC3D4504}"/>
+    <hyperlink ref="F12" r:id="rId8" display="mailto:young@email.com" xr:uid="{F80704D9-AE83-43D6-9DC9-15F00EC5A488}"/>
+    <hyperlink ref="F13" r:id="rId9" display="mailto:allen@email.com" xr:uid="{F5B75F84-9957-4156-9FCD-B58B248B31E2}"/>
+    <hyperlink ref="F14" r:id="rId10" display="mailto:king@email.com" xr:uid="{9D98A0ED-B946-4827-B99E-3012E6FA8F2D}"/>
+    <hyperlink ref="F15" r:id="rId11" display="mailto:scott@email.com" xr:uid="{9BCAD1D3-8A60-45C4-964C-25C5C68EDA4A}"/>
+    <hyperlink ref="F16" r:id="rId12" display="mailto:green@email.com" xr:uid="{E8C1E22E-2B8F-4AA4-99DE-787D46B9290C}"/>
+    <hyperlink ref="F17" r:id="rId13" display="mailto:baker@email.com" xr:uid="{83BC68CF-8CC4-47CB-8FE0-67E178B9E176}"/>
+    <hyperlink ref="F18" r:id="rId14" display="mailto:adams@email.com" xr:uid="{D96BD046-B64E-4CA4-ACA9-0C411083BE2A}"/>
+    <hyperlink ref="F19" r:id="rId15" display="mailto:cruz@email.com" xr:uid="{8EEF5CFA-8DBD-4667-9B7E-39388CB37074}"/>
+    <hyperlink ref="F20" r:id="rId16" display="mailto:phillips@email.com" xr:uid="{3EA84FBD-3545-40FC-A19D-499145331CF2}"/>
+    <hyperlink ref="F21" r:id="rId17" display="mailto:reed@email.com" xr:uid="{2A6B99E8-B97D-4C31-9BE5-1040AF7F9E5D}"/>
+    <hyperlink ref="F22" r:id="rId18" display="mailto:turner@email.com" xr:uid="{E7237393-616A-4A3A-9448-65D1088D41DA}"/>
+    <hyperlink ref="F23" r:id="rId19" display="mailto:morgan@email.com" xr:uid="{0EC1C829-062E-447E-AB8A-AB561112A86B}"/>
+    <hyperlink ref="F24" r:id="rId20" display="mailto:cooper@email.com" xr:uid="{D0354CFD-A66B-4AF5-B2AC-7CF139BBDA5C}"/>
+    <hyperlink ref="F25" r:id="rId21" display="mailto:ward@email.com" xr:uid="{F951DB88-F6C9-46FE-8F0E-90DECA712902}"/>
+    <hyperlink ref="F26" r:id="rId22" display="mailto:torres@email.com" xr:uid="{F53546DD-6DC4-4E75-8773-B9C27F85A5A0}"/>
+    <hyperlink ref="F27" r:id="rId23" display="mailto:peterson@email.com" xr:uid="{39FFB386-2310-43A5-A39B-1D27B6CF24B6}"/>
+    <hyperlink ref="F28" r:id="rId24" display="mailto:gray@email.com" xr:uid="{74C80828-311F-469D-956C-1675CA81A771}"/>
+    <hyperlink ref="F29" r:id="rId25" display="mailto:ramirez@email.com" xr:uid="{6C786ECB-8CAE-4AB2-9AB7-FDB91CE28144}"/>
+    <hyperlink ref="F30" r:id="rId26" display="mailto:james@email.com" xr:uid="{45AA2DFD-C19A-4FB2-9E11-E2DAF8412C3D}"/>
+    <hyperlink ref="F31" r:id="rId27" display="mailto:watson@email.com" xr:uid="{E812354C-BF3B-4B2E-A162-4B0D2F9BEE11}"/>
+    <hyperlink ref="F32" r:id="rId28" display="mailto:brooks@email.com" xr:uid="{A14AA139-FA1E-4534-8BE9-971340D8EAF2}"/>
+    <hyperlink ref="F33" r:id="rId29" display="mailto:kelly@email.com" xr:uid="{E8893E23-2B0E-40D2-A8BE-B891F34DBAE1}"/>
+    <hyperlink ref="F34" r:id="rId30" display="mailto:sanders@email.com" xr:uid="{2A8307E8-C58E-4779-B626-98AD0138EFCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 

--- a/src/assets/DataCSV/Etudiants.xlsx
+++ b/src/assets/DataCSV/Etudiants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\ProjetBlendedLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92CA303-E3C7-48BB-A53B-2C166ED52859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4866435C-4B09-4D74-B373-2F15521CAD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,7 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +742,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1067,8 +1067,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D4:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1080,901 +1080,901 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="3">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>3</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="6">
-        <v>2</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>3</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="6">
-        <v>2</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>3</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="6">
-        <v>2</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="K14" s="5">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>3</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="6">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="K17" s="5">
+        <v>2</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>3</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="6">
-        <v>2</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="5">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>3</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="H22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6" t="s">
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="6">
-        <v>2</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="K23" s="5">
+        <v>2</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>3</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="H25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="6">
-        <v>2</v>
-      </c>
-      <c r="L25" s="6" t="s">
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>3</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="H27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="H28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="6">
-        <v>2</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="5">
+        <v>2</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>3</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="6">
-        <v>1</v>
-      </c>
-      <c r="L30" s="6" t="s">
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K31" s="6">
-        <v>2</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="K31" s="5">
+        <v>2</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>3</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6" t="s">
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="K34" s="6">
-        <v>2</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="K34" s="5">
+        <v>2</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>80</v>
       </c>
     </row>
